--- a/pred_ohlcv/54/2019-10-18 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-18 FAB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,13 +425,16 @@
         <v>6.14</v>
       </c>
       <c r="F2" t="n">
-        <v>121.8888</v>
+        <v>206146.697</v>
       </c>
       <c r="G2" t="n">
-        <v>6.081999999999995</v>
+        <v>6.077666666666661</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -446,13 +454,16 @@
         <v>6.14</v>
       </c>
       <c r="F3" t="n">
-        <v>44.4444</v>
+        <v>121.8888</v>
       </c>
       <c r="G3" t="n">
-        <v>6.086833333333328</v>
+        <v>6.081999999999995</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -472,13 +483,16 @@
         <v>6.14</v>
       </c>
       <c r="F4" t="n">
-        <v>37802.2801</v>
+        <v>44.4444</v>
       </c>
       <c r="G4" t="n">
-        <v>6.090999999999994</v>
+        <v>6.086833333333328</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +512,16 @@
         <v>6.14</v>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>37802.2801</v>
       </c>
       <c r="G5" t="n">
-        <v>6.09566666666666</v>
+        <v>6.090999999999994</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -512,25 +529,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="C6" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="D6" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="E6" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="F6" t="n">
-        <v>13346.7524</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="n">
-        <v>6.099333333333328</v>
+        <v>6.09566666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -550,13 +570,16 @@
         <v>6.11</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>13346.7524</v>
       </c>
       <c r="G7" t="n">
-        <v>6.102833333333328</v>
+        <v>6.099333333333328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +599,16 @@
         <v>6.11</v>
       </c>
       <c r="F8" t="n">
-        <v>2136.6979</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>6.103666666666661</v>
+        <v>6.102833333333328</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -602,12 +628,15 @@
         <v>6.11</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>2136.6979</v>
       </c>
       <c r="G9" t="n">
-        <v>6.104499999999995</v>
+        <v>6.103666666666661</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>6.11</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>6.105166666666662</v>
+        <v>6.104499999999995</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="C11" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="D11" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="E11" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="F11" t="n">
-        <v>38460.1639</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>6.104833333333329</v>
+        <v>6.105166666666662</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="C12" t="n">
         <v>6.13</v>
@@ -677,15 +712,18 @@
         <v>6.13</v>
       </c>
       <c r="E12" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>38460.1639</v>
       </c>
       <c r="G12" t="n">
-        <v>6.105333333333329</v>
+        <v>6.104833333333329</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.09</v>
+        <v>6.13</v>
       </c>
       <c r="C13" t="n">
         <v>6.13</v>
@@ -703,15 +741,18 @@
         <v>6.13</v>
       </c>
       <c r="E13" t="n">
-        <v>6.07</v>
+        <v>6.13</v>
       </c>
       <c r="F13" t="n">
-        <v>151449.8361</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>6.105666666666662</v>
+        <v>6.105333333333329</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.13</v>
+        <v>6.09</v>
       </c>
       <c r="C14" t="n">
         <v>6.13</v>
@@ -729,15 +770,18 @@
         <v>6.13</v>
       </c>
       <c r="E14" t="n">
-        <v>6.13</v>
+        <v>6.07</v>
       </c>
       <c r="F14" t="n">
-        <v>607.5040783034258</v>
+        <v>151449.8361</v>
       </c>
       <c r="G14" t="n">
-        <v>6.107499999999995</v>
+        <v>6.105666666666662</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>6.13</v>
       </c>
       <c r="C15" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="D15" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="E15" t="n">
         <v>6.13</v>
       </c>
       <c r="F15" t="n">
-        <v>11763.2483</v>
+        <v>607.5040783034258</v>
       </c>
       <c r="G15" t="n">
-        <v>6.109666666666661</v>
+        <v>6.107499999999995</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,10 +819,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C16" t="n">
         <v>6.14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.13</v>
       </c>
       <c r="D16" t="n">
         <v>6.14</v>
@@ -784,12 +831,15 @@
         <v>6.13</v>
       </c>
       <c r="F16" t="n">
-        <v>144.3332</v>
+        <v>11763.2483</v>
       </c>
       <c r="G16" t="n">
-        <v>6.110499999999996</v>
+        <v>6.109666666666661</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.1</v>
+        <v>6.14</v>
       </c>
       <c r="C17" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="D17" t="n">
         <v>6.14</v>
       </c>
       <c r="E17" t="n">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="F17" t="n">
-        <v>98.95350000000001</v>
+        <v>144.3332</v>
       </c>
       <c r="G17" t="n">
-        <v>6.111666666666662</v>
+        <v>6.110499999999996</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="C18" t="n">
         <v>6.14</v>
@@ -833,15 +886,18 @@
         <v>6.14</v>
       </c>
       <c r="E18" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="F18" t="n">
-        <v>275.393</v>
+        <v>98.95350000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>6.112833333333328</v>
+        <v>6.111666666666662</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>6.14</v>
       </c>
       <c r="F19" t="n">
-        <v>44.4444</v>
+        <v>275.393</v>
       </c>
       <c r="G19" t="n">
-        <v>6.115833333333328</v>
+        <v>6.112833333333328</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>6.14</v>
       </c>
       <c r="F20" t="n">
-        <v>955.5556</v>
+        <v>44.4444</v>
       </c>
       <c r="G20" t="n">
-        <v>6.116999999999995</v>
+        <v>6.115833333333328</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>6.14</v>
       </c>
       <c r="F21" t="n">
-        <v>150</v>
+        <v>955.5556</v>
       </c>
       <c r="G21" t="n">
-        <v>6.118499999999995</v>
+        <v>6.116999999999995</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>6.14</v>
       </c>
       <c r="F22" t="n">
-        <v>47850.00006436758</v>
+        <v>150</v>
       </c>
       <c r="G22" t="n">
-        <v>6.119999999999994</v>
+        <v>6.118499999999995</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="C23" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="D23" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="E23" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="F23" t="n">
-        <v>110</v>
+        <v>47850.00006436758</v>
       </c>
       <c r="G23" t="n">
-        <v>6.12166666666666</v>
+        <v>6.119999999999994</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>6.15</v>
       </c>
       <c r="F24" t="n">
-        <v>736873.0081</v>
+        <v>110</v>
       </c>
       <c r="G24" t="n">
-        <v>6.122999999999993</v>
+        <v>6.12166666666666</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>6.15</v>
       </c>
       <c r="F25" t="n">
-        <v>20886.0167</v>
+        <v>736873.0081</v>
       </c>
       <c r="G25" t="n">
-        <v>6.124333333333326</v>
+        <v>6.122999999999993</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>6.15</v>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>20886.0167</v>
       </c>
       <c r="G26" t="n">
-        <v>6.125666666666659</v>
+        <v>6.124333333333326</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>6.15</v>
       </c>
       <c r="F27" t="n">
-        <v>41278.1028</v>
+        <v>200</v>
       </c>
       <c r="G27" t="n">
-        <v>6.126999999999993</v>
+        <v>6.125666666666659</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>6.15</v>
       </c>
       <c r="F28" t="n">
-        <v>1511.5384</v>
+        <v>41278.1028</v>
       </c>
       <c r="G28" t="n">
-        <v>6.128333333333326</v>
+        <v>6.126999999999993</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>6.15</v>
       </c>
       <c r="F29" t="n">
-        <v>155.9191</v>
+        <v>1511.5384</v>
       </c>
       <c r="G29" t="n">
-        <v>6.129666666666659</v>
+        <v>6.128333333333326</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>6.15</v>
       </c>
       <c r="F30" t="n">
-        <v>162.3376</v>
+        <v>155.9191</v>
       </c>
       <c r="G30" t="n">
-        <v>6.130499999999992</v>
+        <v>6.129666666666659</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>6.15</v>
       </c>
       <c r="F31" t="n">
-        <v>89</v>
+        <v>162.3376</v>
       </c>
       <c r="G31" t="n">
-        <v>6.131333333333324</v>
+        <v>6.130499999999992</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>6.15</v>
       </c>
       <c r="F32" t="n">
-        <v>1350</v>
+        <v>89</v>
       </c>
       <c r="G32" t="n">
-        <v>6.132166666666657</v>
+        <v>6.131333333333324</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>6.15</v>
       </c>
       <c r="F33" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="G33" t="n">
-        <v>6.132999999999989</v>
+        <v>6.132166666666657</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>6.15</v>
       </c>
       <c r="F34" t="n">
-        <v>2200</v>
+        <v>1650</v>
       </c>
       <c r="G34" t="n">
-        <v>6.133833333333322</v>
+        <v>6.132999999999989</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>6.15</v>
       </c>
       <c r="F35" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G35" t="n">
-        <v>6.134666666666654</v>
+        <v>6.133833333333322</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>6.15</v>
       </c>
       <c r="F36" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="G36" t="n">
-        <v>6.135499999999987</v>
+        <v>6.134666666666654</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>6.15</v>
       </c>
       <c r="F37" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="G37" t="n">
-        <v>6.13633333333332</v>
+        <v>6.135499999999987</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>6.15</v>
       </c>
       <c r="F38" t="n">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="G38" t="n">
-        <v>6.136999999999985</v>
+        <v>6.13633333333332</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>6.15</v>
       </c>
       <c r="F39" t="n">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="G39" t="n">
-        <v>6.137166666666652</v>
+        <v>6.136999999999985</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>6.15</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>8400</v>
       </c>
       <c r="G40" t="n">
-        <v>6.137333333333318</v>
+        <v>6.137166666666652</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1437,9 +1559,12 @@
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>6.137499999999985</v>
+        <v>6.137333333333318</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C42" t="n">
         <v>6.15</v>
@@ -1457,15 +1582,18 @@
         <v>6.15</v>
       </c>
       <c r="E42" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F42" t="n">
-        <v>94306.61500000001</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>6.138166666666651</v>
+        <v>6.137499999999985</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="C43" t="n">
         <v>6.15</v>
@@ -1483,15 +1611,18 @@
         <v>6.15</v>
       </c>
       <c r="E43" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="F43" t="n">
-        <v>16260.1626</v>
+        <v>94306.61500000001</v>
       </c>
       <c r="G43" t="n">
-        <v>6.138333333333318</v>
+        <v>6.138166666666651</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C44" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="D44" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E44" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F44" t="n">
-        <v>174.1321</v>
+        <v>16260.1626</v>
       </c>
       <c r="G44" t="n">
-        <v>6.138666666666651</v>
+        <v>6.138333333333318</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="C45" t="n">
         <v>6.16</v>
@@ -1535,15 +1669,18 @@
         <v>6.16</v>
       </c>
       <c r="E45" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>174.1321</v>
       </c>
       <c r="G45" t="n">
-        <v>6.138999999999985</v>
+        <v>6.138666666666651</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="C46" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="D46" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="E46" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="F46" t="n">
-        <v>100.5</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>6.138833333333319</v>
+        <v>6.138999999999985</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="C47" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="D47" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="E47" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>100.5</v>
       </c>
       <c r="G47" t="n">
-        <v>6.139166666666653</v>
+        <v>6.138833333333319</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>6.16</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>6.139499999999987</v>
+        <v>6.139166666666653</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>6.16</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>6.13983333333332</v>
+        <v>6.139499999999987</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>6.16</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>6.140166666666655</v>
+        <v>6.13983333333332</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>6.16</v>
       </c>
       <c r="F51" t="n">
-        <v>353.4090909090909</v>
+        <v>29</v>
       </c>
       <c r="G51" t="n">
-        <v>6.140499999999989</v>
+        <v>6.140166666666655</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>6.16</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>353.4090909090909</v>
       </c>
       <c r="G52" t="n">
-        <v>6.140833333333322</v>
+        <v>6.140499999999989</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>6.16</v>
       </c>
       <c r="F53" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>6.141166666666657</v>
+        <v>6.140833333333322</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>6.16</v>
       </c>
       <c r="F54" t="n">
-        <v>196.7532</v>
+        <v>52</v>
       </c>
       <c r="G54" t="n">
-        <v>6.141499999999991</v>
+        <v>6.141166666666657</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>6.16</v>
       </c>
       <c r="F55" t="n">
-        <v>2634.4686</v>
+        <v>196.7532</v>
       </c>
       <c r="G55" t="n">
-        <v>6.141833333333325</v>
+        <v>6.141499999999991</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>6.16</v>
       </c>
       <c r="F56" t="n">
-        <v>55.4444</v>
+        <v>2634.4686</v>
       </c>
       <c r="G56" t="n">
-        <v>6.142166666666658</v>
+        <v>6.141833333333325</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="C57" t="n">
         <v>6.16</v>
@@ -1847,15 +2017,18 @@
         <v>6.16</v>
       </c>
       <c r="E57" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F57" t="n">
-        <v>1199.4404</v>
+        <v>55.4444</v>
       </c>
       <c r="G57" t="n">
-        <v>6.142999999999992</v>
+        <v>6.142166666666658</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="C58" t="n">
         <v>6.16</v>
@@ -1873,15 +2046,18 @@
         <v>6.16</v>
       </c>
       <c r="E58" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="F58" t="n">
-        <v>403.0121</v>
+        <v>1199.4404</v>
       </c>
       <c r="G58" t="n">
-        <v>6.144333333333326</v>
+        <v>6.142999999999992</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>6.16</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>403.0121</v>
       </c>
       <c r="G59" t="n">
-        <v>6.144833333333326</v>
+        <v>6.144333333333326</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>6.16</v>
       </c>
       <c r="F60" t="n">
-        <v>84.41549999999999</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>6.145333333333327</v>
+        <v>6.144833333333326</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>6.16</v>
       </c>
       <c r="F61" t="n">
-        <v>48967.6447987013</v>
+        <v>84.41549999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>6.145666666666661</v>
+        <v>6.145333333333327</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>6.16</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0389610389612e-05</v>
+        <v>48967.6447987013</v>
       </c>
       <c r="G62" t="n">
-        <v>6.145999999999995</v>
+        <v>6.145666666666661</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="C63" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="D63" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="E63" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="F63" t="n">
-        <v>273.2825</v>
+        <v>1.0389610389612e-05</v>
       </c>
       <c r="G63" t="n">
-        <v>6.146666666666662</v>
+        <v>6.145999999999995</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,21 +2214,24 @@
         <v>6.18</v>
       </c>
       <c r="C64" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="D64" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="E64" t="n">
         <v>6.18</v>
       </c>
       <c r="F64" t="n">
-        <v>46667.6163</v>
+        <v>273.2825</v>
       </c>
       <c r="G64" t="n">
-        <v>6.147666666666662</v>
+        <v>6.146666666666662</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2240,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="C65" t="n">
         <v>6.2</v>
@@ -2055,15 +2249,18 @@
         <v>6.2</v>
       </c>
       <c r="E65" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="F65" t="n">
-        <v>30387.74193548387</v>
+        <v>46667.6163</v>
       </c>
       <c r="G65" t="n">
-        <v>6.148666666666662</v>
+        <v>6.147666666666662</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>6.2</v>
       </c>
       <c r="F66" t="n">
-        <v>743.5699</v>
+        <v>30387.74193548387</v>
       </c>
       <c r="G66" t="n">
-        <v>6.150166666666662</v>
+        <v>6.148666666666662</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>6.2</v>
       </c>
       <c r="F67" t="n">
-        <v>143.3332</v>
+        <v>743.5699</v>
       </c>
       <c r="G67" t="n">
-        <v>6.151666666666661</v>
+        <v>6.150166666666662</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>6.2</v>
       </c>
       <c r="F68" t="n">
-        <v>58.0645</v>
+        <v>143.3332</v>
       </c>
       <c r="G68" t="n">
-        <v>6.153166666666661</v>
+        <v>6.151666666666661</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>6.2</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>58.0645</v>
       </c>
       <c r="G69" t="n">
-        <v>6.15466666666666</v>
+        <v>6.153166666666661</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>6.2</v>
       </c>
       <c r="F70" t="n">
-        <v>488.6023</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>6.15616666666666</v>
+        <v>6.15466666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>6.2</v>
       </c>
       <c r="F71" t="n">
-        <v>255.4444</v>
+        <v>488.6023</v>
       </c>
       <c r="G71" t="n">
-        <v>6.157333333333327</v>
+        <v>6.15616666666666</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="C72" t="n">
         <v>6.2</v>
@@ -2237,15 +2452,18 @@
         <v>6.2</v>
       </c>
       <c r="E72" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="F72" t="n">
-        <v>425.5059</v>
+        <v>255.4444</v>
       </c>
       <c r="G72" t="n">
-        <v>6.158499999999993</v>
+        <v>6.157333333333327</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.2</v>
+        <v>6.16</v>
       </c>
       <c r="C73" t="n">
         <v>6.2</v>
@@ -2263,15 +2481,18 @@
         <v>6.2</v>
       </c>
       <c r="E73" t="n">
-        <v>6.2</v>
+        <v>6.16</v>
       </c>
       <c r="F73" t="n">
-        <v>88.8888</v>
+        <v>425.5059</v>
       </c>
       <c r="G73" t="n">
-        <v>6.15966666666666</v>
+        <v>6.158499999999993</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>6.2</v>
       </c>
       <c r="F74" t="n">
-        <v>10000</v>
+        <v>88.8888</v>
       </c>
       <c r="G74" t="n">
-        <v>6.160833333333327</v>
+        <v>6.15966666666666</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="C75" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="D75" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="E75" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="F75" t="n">
-        <v>13009.1576</v>
+        <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>6.16116666666666</v>
+        <v>6.160833333333327</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="C76" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="D76" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="E76" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F76" t="n">
-        <v>67006.7813</v>
+        <v>13009.1576</v>
       </c>
       <c r="G76" t="n">
-        <v>6.161499999999993</v>
+        <v>6.16116666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C77" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="D77" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="E77" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F77" t="n">
-        <v>37831.4064</v>
+        <v>67006.7813</v>
       </c>
       <c r="G77" t="n">
-        <v>6.161333333333327</v>
+        <v>6.161499999999993</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>6.13</v>
       </c>
       <c r="F78" t="n">
-        <v>10094.0726</v>
+        <v>37831.4064</v>
       </c>
       <c r="G78" t="n">
-        <v>6.16116666666666</v>
+        <v>6.161333333333327</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="C79" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="D79" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="E79" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>10094.0726</v>
       </c>
       <c r="G79" t="n">
-        <v>6.161333333333327</v>
+        <v>6.16116666666666</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>6.15</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>6.161499999999993</v>
+        <v>6.161333333333327</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>6.15</v>
       </c>
       <c r="F81" t="n">
-        <v>73.8</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>6.16166666666666</v>
+        <v>6.161499999999993</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="C82" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="D82" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="E82" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="F82" t="n">
-        <v>37470.509</v>
+        <v>73.8</v>
       </c>
       <c r="G82" t="n">
-        <v>6.160999999999993</v>
+        <v>6.16166666666666</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="C83" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="D83" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="E83" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="F83" t="n">
-        <v>110</v>
+        <v>37470.509</v>
       </c>
       <c r="G83" t="n">
-        <v>6.160833333333327</v>
+        <v>6.160999999999993</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.1</v>
+        <v>6.14</v>
       </c>
       <c r="C84" t="n">
-        <v>6.09</v>
+        <v>6.14</v>
       </c>
       <c r="D84" t="n">
-        <v>6.1</v>
+        <v>6.14</v>
       </c>
       <c r="E84" t="n">
-        <v>6.09</v>
+        <v>6.14</v>
       </c>
       <c r="F84" t="n">
-        <v>132415.6355</v>
+        <v>110</v>
       </c>
       <c r="G84" t="n">
-        <v>6.159833333333327</v>
+        <v>6.160833333333327</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C85" t="n">
         <v>6.09</v>
       </c>
-      <c r="C85" t="n">
-        <v>6.07</v>
-      </c>
       <c r="D85" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E85" t="n">
         <v>6.09</v>
       </c>
-      <c r="E85" t="n">
-        <v>6.07</v>
-      </c>
       <c r="F85" t="n">
-        <v>375039.1495</v>
+        <v>132415.6355</v>
       </c>
       <c r="G85" t="n">
-        <v>6.158499999999994</v>
+        <v>6.159833333333327</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.07</v>
+        <v>6.09</v>
       </c>
       <c r="C86" t="n">
         <v>6.07</v>
       </c>
       <c r="D86" t="n">
-        <v>6.07</v>
+        <v>6.09</v>
       </c>
       <c r="E86" t="n">
         <v>6.07</v>
       </c>
       <c r="F86" t="n">
-        <v>14277.4286</v>
+        <v>375039.1495</v>
       </c>
       <c r="G86" t="n">
-        <v>6.157166666666661</v>
+        <v>6.158499999999994</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="C87" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="D87" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="E87" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="F87" t="n">
-        <v>42970.8586</v>
+        <v>14277.4286</v>
       </c>
       <c r="G87" t="n">
-        <v>6.155666666666662</v>
+        <v>6.157166666666661</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="C88" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="D88" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="E88" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="F88" t="n">
-        <v>263821.1866</v>
+        <v>42970.8586</v>
       </c>
       <c r="G88" t="n">
-        <v>6.154333333333328</v>
+        <v>6.155666666666662</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.07</v>
+        <v>6.05</v>
       </c>
       <c r="C89" t="n">
         <v>6.07</v>
@@ -2679,15 +2945,18 @@
         <v>6.07</v>
       </c>
       <c r="E89" t="n">
-        <v>6.07</v>
+        <v>6.05</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>263821.1866</v>
       </c>
       <c r="G89" t="n">
-        <v>6.152999999999995</v>
+        <v>6.154333333333328</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2711,9 +2980,12 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>6.151666666666662</v>
+        <v>6.152999999999995</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,7 +2994,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="C91" t="n">
         <v>6.07</v>
@@ -2731,15 +3003,18 @@
         <v>6.07</v>
       </c>
       <c r="E91" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="F91" t="n">
-        <v>93319.5419</v>
+        <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>6.15033333333333</v>
+        <v>6.151666666666662</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>6.05</v>
       </c>
       <c r="C92" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="D92" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="E92" t="n">
         <v>6.05</v>
       </c>
       <c r="F92" t="n">
-        <v>61605.6332</v>
+        <v>93319.5419</v>
       </c>
       <c r="G92" t="n">
-        <v>6.148666666666663</v>
+        <v>6.15033333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="C93" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="D93" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="E93" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F93" t="n">
-        <v>660</v>
+        <v>61605.6332</v>
       </c>
       <c r="G93" t="n">
-        <v>6.146833333333331</v>
+        <v>6.148666666666663</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="D94" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E94" t="n">
-        <v>5.85</v>
+        <v>6.04</v>
       </c>
       <c r="F94" t="n">
-        <v>2100020</v>
+        <v>660</v>
       </c>
       <c r="G94" t="n">
-        <v>6.144333333333331</v>
+        <v>6.146833333333331</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.06</v>
+        <v>5.97</v>
       </c>
       <c r="C95" t="n">
-        <v>6.06</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="E95" t="n">
-        <v>6.06</v>
+        <v>5.85</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>2100020</v>
       </c>
       <c r="G95" t="n">
-        <v>6.142833333333331</v>
+        <v>6.144333333333331</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="C96" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="D96" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="E96" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>6.141166666666665</v>
+        <v>6.142833333333331</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>6.05</v>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>6.139499999999999</v>
+        <v>6.141166666666665</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.96</v>
+        <v>6.05</v>
       </c>
       <c r="C98" t="n">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="D98" t="n">
-        <v>5.96</v>
+        <v>6.05</v>
       </c>
       <c r="E98" t="n">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="F98" t="n">
-        <v>303071.9831</v>
+        <v>200</v>
       </c>
       <c r="G98" t="n">
-        <v>6.136166666666666</v>
+        <v>6.139499999999999</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.95</v>
+        <v>5.96</v>
       </c>
       <c r="C99" t="n">
         <v>5.95</v>
       </c>
       <c r="D99" t="n">
-        <v>5.95</v>
+        <v>5.96</v>
       </c>
       <c r="E99" t="n">
         <v>5.95</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>303071.9831</v>
       </c>
       <c r="G99" t="n">
-        <v>6.132833333333333</v>
+        <v>6.136166666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>5.95</v>
       </c>
       <c r="F100" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>6.129499999999999</v>
+        <v>6.132833333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="C101" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="D101" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="E101" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="F101" t="n">
-        <v>88969.47229999999</v>
+        <v>1100</v>
       </c>
       <c r="G101" t="n">
-        <v>6.125333333333333</v>
+        <v>6.129499999999999</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="C102" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D102" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="E102" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>88969.47229999999</v>
       </c>
       <c r="G102" t="n">
-        <v>6.121833333333333</v>
+        <v>6.125333333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>5.94</v>
       </c>
       <c r="F103" t="n">
-        <v>44.6127</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>6.118333333333334</v>
+        <v>6.121833333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>5.94</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>44.6127</v>
       </c>
       <c r="G104" t="n">
-        <v>6.114666666666666</v>
+        <v>6.118333333333334</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F105" t="n">
-        <v>52379.7421</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>6.110333333333332</v>
+        <v>6.114666666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C106" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D106" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="E106" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>52379.7421</v>
       </c>
       <c r="G106" t="n">
-        <v>6.107166666666666</v>
+        <v>6.110333333333332</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C107" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D107" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E107" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F107" t="n">
-        <v>145126.8362</v>
+        <v>20</v>
       </c>
       <c r="G107" t="n">
-        <v>6.102833333333332</v>
+        <v>6.107166666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C108" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D108" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="E108" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>145126.8362</v>
       </c>
       <c r="G108" t="n">
-        <v>6.099166666666664</v>
+        <v>6.102833333333332</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C109" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D109" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E109" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F109" t="n">
-        <v>476.4214</v>
+        <v>20</v>
       </c>
       <c r="G109" t="n">
-        <v>6.09483333333333</v>
+        <v>6.099166666666664</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C110" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D110" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="E110" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F110" t="n">
-        <v>1010</v>
+        <v>476.4214</v>
       </c>
       <c r="G110" t="n">
-        <v>6.091166666666664</v>
+        <v>6.09483333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="C111" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="D111" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="E111" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="F111" t="n">
-        <v>435.1107</v>
+        <v>1010</v>
       </c>
       <c r="G111" t="n">
-        <v>6.08733333333333</v>
+        <v>6.091166666666664</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="C112" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="D112" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="E112" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>435.1107</v>
       </c>
       <c r="G112" t="n">
-        <v>6.083833333333329</v>
+        <v>6.08733333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="C113" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="D113" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="E113" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="F113" t="n">
-        <v>145688.6667</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>6.079999999999996</v>
+        <v>6.083833333333329</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="C114" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="D114" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="E114" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="F114" t="n">
-        <v>1531.9327</v>
+        <v>145688.6667</v>
       </c>
       <c r="G114" t="n">
-        <v>6.076499999999995</v>
+        <v>6.079999999999996</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="C115" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="D115" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E115" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>1531.9327</v>
       </c>
       <c r="G115" t="n">
-        <v>6.072833333333327</v>
+        <v>6.076499999999995</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>5.94</v>
       </c>
       <c r="F116" t="n">
-        <v>1100</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>6.069166666666661</v>
+        <v>6.072833333333327</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="C117" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="D117" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="E117" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G117" t="n">
-        <v>6.065333333333327</v>
+        <v>6.069166666666661</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
       <c r="C118" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="D118" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="E118" t="n">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
       <c r="F118" t="n">
-        <v>207785.9771</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="n">
-        <v>6.061333333333327</v>
+        <v>6.065333333333327</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="C119" t="n">
-        <v>5.85</v>
+        <v>5.92</v>
       </c>
       <c r="D119" t="n">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
       <c r="E119" t="n">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="F119" t="n">
-        <v>473727.4623</v>
+        <v>207785.9771</v>
       </c>
       <c r="G119" t="n">
-        <v>6.05616666666666</v>
+        <v>6.061333333333327</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="C120" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="D120" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="E120" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="F120" t="n">
-        <v>173233.7068</v>
+        <v>473727.4623</v>
       </c>
       <c r="G120" t="n">
-        <v>6.05016666666666</v>
+        <v>6.05616666666666</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>5.8</v>
       </c>
       <c r="C121" t="n">
-        <v>5.93</v>
+        <v>5.8</v>
       </c>
       <c r="D121" t="n">
-        <v>5.93</v>
+        <v>5.8</v>
       </c>
       <c r="E121" t="n">
         <v>5.8</v>
       </c>
       <c r="F121" t="n">
-        <v>2045.9625</v>
+        <v>173233.7068</v>
       </c>
       <c r="G121" t="n">
-        <v>6.046333333333326</v>
+        <v>6.05016666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C122" t="n">
-        <v>5.7</v>
+        <v>5.93</v>
       </c>
       <c r="D122" t="n">
-        <v>5.7</v>
+        <v>5.93</v>
       </c>
       <c r="E122" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F122" t="n">
-        <v>231634.4815</v>
+        <v>2045.9625</v>
       </c>
       <c r="G122" t="n">
-        <v>6.038666666666659</v>
+        <v>6.046333333333326</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,21 +3925,24 @@
         <v>5.7</v>
       </c>
       <c r="C123" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="D123" t="n">
         <v>5.7</v>
       </c>
       <c r="E123" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="F123" t="n">
-        <v>112369.8095</v>
+        <v>231634.4815</v>
       </c>
       <c r="G123" t="n">
-        <v>6.029999999999992</v>
+        <v>6.038666666666659</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.91</v>
+        <v>5.7</v>
       </c>
       <c r="C124" t="n">
-        <v>5.91</v>
+        <v>5.66</v>
       </c>
       <c r="D124" t="n">
-        <v>5.91</v>
+        <v>5.7</v>
       </c>
       <c r="E124" t="n">
-        <v>5.91</v>
+        <v>5.66</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>112369.8095</v>
       </c>
       <c r="G124" t="n">
-        <v>6.02516666666666</v>
+        <v>6.029999999999992</v>
       </c>
       <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.65</v>
+        <v>5.91</v>
       </c>
       <c r="C125" t="n">
-        <v>5.65</v>
+        <v>5.91</v>
       </c>
       <c r="D125" t="n">
-        <v>5.65</v>
+        <v>5.91</v>
       </c>
       <c r="E125" t="n">
-        <v>5.65</v>
+        <v>5.91</v>
       </c>
       <c r="F125" t="n">
-        <v>3272.127</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>6.015999999999993</v>
+        <v>6.02516666666666</v>
       </c>
       <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.91</v>
+        <v>5.65</v>
       </c>
       <c r="C126" t="n">
-        <v>5.92</v>
+        <v>5.65</v>
       </c>
       <c r="D126" t="n">
-        <v>5.92</v>
+        <v>5.65</v>
       </c>
       <c r="E126" t="n">
-        <v>5.91</v>
+        <v>5.65</v>
       </c>
       <c r="F126" t="n">
-        <v>12462.077</v>
+        <v>3272.127</v>
       </c>
       <c r="G126" t="n">
-        <v>6.011333333333327</v>
+        <v>6.015999999999993</v>
       </c>
       <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>5.91</v>
       </c>
       <c r="F127" t="n">
-        <v>63819.9287</v>
+        <v>12462.077</v>
       </c>
       <c r="G127" t="n">
-        <v>6.006666666666661</v>
+        <v>6.011333333333327</v>
       </c>
       <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.92</v>
+        <v>5.91</v>
       </c>
       <c r="C128" t="n">
         <v>5.92</v>
@@ -3693,15 +4076,18 @@
         <v>5.92</v>
       </c>
       <c r="E128" t="n">
-        <v>5.92</v>
+        <v>5.91</v>
       </c>
       <c r="F128" t="n">
-        <v>100</v>
+        <v>63819.9287</v>
       </c>
       <c r="G128" t="n">
-        <v>6.001999999999994</v>
+        <v>6.006666666666661</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3725,9 +4111,12 @@
         <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>5.997333333333328</v>
+        <v>6.001999999999994</v>
       </c>
       <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="C130" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="D130" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="E130" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="F130" t="n">
-        <v>221065.7438</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>5.992499999999995</v>
+        <v>5.997333333333328</v>
       </c>
       <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="C131" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="D131" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="E131" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>221065.7438</v>
       </c>
       <c r="G131" t="n">
-        <v>5.984166666666662</v>
+        <v>5.992499999999995</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="C132" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="D132" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="E132" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F132" t="n">
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>5.979166666666662</v>
+        <v>5.984166666666662</v>
       </c>
       <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>5.9</v>
       </c>
       <c r="F133" t="n">
-        <v>1099.8983</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>5.974166666666662</v>
+        <v>5.979166666666662</v>
       </c>
       <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="C134" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="D134" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="E134" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="F134" t="n">
-        <v>3280</v>
+        <v>1099.8983</v>
       </c>
       <c r="G134" t="n">
-        <v>5.965833333333328</v>
+        <v>5.974166666666662</v>
       </c>
       <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.87</v>
+        <v>5.7</v>
       </c>
       <c r="C135" t="n">
-        <v>5.87</v>
+        <v>5.7</v>
       </c>
       <c r="D135" t="n">
-        <v>5.87</v>
+        <v>5.7</v>
       </c>
       <c r="E135" t="n">
-        <v>5.87</v>
+        <v>5.7</v>
       </c>
       <c r="F135" t="n">
-        <v>1000</v>
+        <v>3280</v>
       </c>
       <c r="G135" t="n">
-        <v>5.960999999999995</v>
+        <v>5.965833333333328</v>
       </c>
       <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>5.87</v>
       </c>
       <c r="C136" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="D136" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E136" t="n">
         <v>5.87</v>
       </c>
       <c r="F136" t="n">
-        <v>2794.9593</v>
+        <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>5.956499999999995</v>
+        <v>5.960999999999995</v>
       </c>
       <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,7 +4328,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C137" t="n">
         <v>5.88</v>
@@ -3927,15 +4337,18 @@
         <v>5.88</v>
       </c>
       <c r="E137" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F137" t="n">
-        <v>77.551</v>
+        <v>2794.9593</v>
       </c>
       <c r="G137" t="n">
-        <v>5.952333333333328</v>
+        <v>5.956499999999995</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>5.88</v>
       </c>
       <c r="F138" t="n">
-        <v>13628.7414</v>
+        <v>77.551</v>
       </c>
       <c r="G138" t="n">
-        <v>5.948166666666662</v>
+        <v>5.952333333333328</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>5.88</v>
       </c>
       <c r="F139" t="n">
-        <v>170.068</v>
+        <v>13628.7414</v>
       </c>
       <c r="G139" t="n">
-        <v>5.943666666666662</v>
+        <v>5.948166666666662</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.76</v>
+        <v>5.88</v>
       </c>
       <c r="C140" t="n">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="D140" t="n">
-        <v>5.76</v>
+        <v>5.88</v>
       </c>
       <c r="E140" t="n">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="F140" t="n">
-        <v>808346.5201</v>
+        <v>170.068</v>
       </c>
       <c r="G140" t="n">
-        <v>5.936499999999996</v>
+        <v>5.943666666666662</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="C141" t="n">
-        <v>5.84</v>
+        <v>5.72</v>
       </c>
       <c r="D141" t="n">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="E141" t="n">
-        <v>5.84</v>
+        <v>5.72</v>
       </c>
       <c r="F141" t="n">
-        <v>93</v>
+        <v>808346.5201</v>
       </c>
       <c r="G141" t="n">
-        <v>5.931333333333329</v>
+        <v>5.936499999999996</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>5.84</v>
       </c>
       <c r="F142" t="n">
-        <v>5916.593473972603</v>
+        <v>93</v>
       </c>
       <c r="G142" t="n">
-        <v>5.926999999999995</v>
+        <v>5.931333333333329</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>5.84</v>
       </c>
       <c r="F143" t="n">
-        <v>228.9453</v>
+        <v>5916.593473972603</v>
       </c>
       <c r="G143" t="n">
-        <v>5.921999999999995</v>
+        <v>5.926999999999995</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>5.84</v>
       </c>
       <c r="F144" t="n">
-        <v>44.4444</v>
+        <v>228.9453</v>
       </c>
       <c r="G144" t="n">
-        <v>5.917833333333329</v>
+        <v>5.921999999999995</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>5.84</v>
       </c>
       <c r="F145" t="n">
-        <v>7866.6668</v>
+        <v>44.4444</v>
       </c>
       <c r="G145" t="n">
-        <v>5.913999999999995</v>
+        <v>5.917833333333329</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>5.84</v>
       </c>
       <c r="F146" t="n">
-        <v>225</v>
+        <v>7866.6668</v>
       </c>
       <c r="G146" t="n">
-        <v>5.910166666666661</v>
+        <v>5.913999999999995</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C147" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D147" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E147" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F147" t="n">
-        <v>3113.2075</v>
+        <v>225</v>
       </c>
       <c r="G147" t="n">
-        <v>5.906333333333327</v>
+        <v>5.910166666666661</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>5.83</v>
       </c>
       <c r="F148" t="n">
-        <v>9339.688</v>
+        <v>3113.2075</v>
       </c>
       <c r="G148" t="n">
-        <v>5.902333333333328</v>
+        <v>5.906333333333327</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>5.83</v>
       </c>
       <c r="F149" t="n">
-        <v>92.2945</v>
+        <v>9339.688</v>
       </c>
       <c r="G149" t="n">
-        <v>5.898333333333327</v>
+        <v>5.902333333333328</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="C150" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="D150" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="E150" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="F150" t="n">
-        <v>10000</v>
+        <v>92.2945</v>
       </c>
       <c r="G150" t="n">
-        <v>5.892833333333328</v>
+        <v>5.898333333333327</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="C151" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="D151" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="E151" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="F151" t="n">
-        <v>172.1170395869191</v>
+        <v>10000</v>
       </c>
       <c r="G151" t="n">
-        <v>5.888499999999994</v>
+        <v>5.892833333333328</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>5.81</v>
       </c>
       <c r="F152" t="n">
-        <v>1750.1719</v>
+        <v>172.1170395869191</v>
       </c>
       <c r="G152" t="n">
-        <v>5.884499999999994</v>
+        <v>5.888499999999994</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>5.81</v>
       </c>
       <c r="C153" t="n">
-        <v>5.89</v>
+        <v>5.81</v>
       </c>
       <c r="D153" t="n">
-        <v>5.89</v>
+        <v>5.81</v>
       </c>
       <c r="E153" t="n">
         <v>5.81</v>
       </c>
       <c r="F153" t="n">
-        <v>42162.94858672887</v>
+        <v>1750.1719</v>
       </c>
       <c r="G153" t="n">
-        <v>5.881999999999993</v>
+        <v>5.884499999999994</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.88</v>
+        <v>5.81</v>
       </c>
       <c r="C154" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D154" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E154" t="n">
-        <v>5.88</v>
+        <v>5.81</v>
       </c>
       <c r="F154" t="n">
-        <v>72262.58500000001</v>
+        <v>42162.94858672887</v>
       </c>
       <c r="G154" t="n">
-        <v>5.879999999999994</v>
+        <v>5.881999999999993</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C155" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="D155" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="E155" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F155" t="n">
-        <v>71686.34697368421</v>
+        <v>72262.58500000001</v>
       </c>
       <c r="G155" t="n">
-        <v>5.877333333333326</v>
+        <v>5.879999999999994</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +4879,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="C156" t="n">
         <v>5.9</v>
@@ -4421,15 +4888,18 @@
         <v>5.9</v>
       </c>
       <c r="E156" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F156" t="n">
-        <v>108026.4406</v>
+        <v>71686.34697368421</v>
       </c>
       <c r="G156" t="n">
-        <v>5.874833333333326</v>
+        <v>5.877333333333326</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="C157" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="D157" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="E157" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="F157" t="n">
-        <v>36534.50012631579</v>
+        <v>108026.4406</v>
       </c>
       <c r="G157" t="n">
-        <v>5.872166666666659</v>
+        <v>5.874833333333326</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="C158" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="D158" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="E158" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F158" t="n">
-        <v>136.5932</v>
+        <v>36534.50012631579</v>
       </c>
       <c r="G158" t="n">
-        <v>5.871333333333325</v>
+        <v>5.872166666666659</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="C159" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="D159" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="E159" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="F159" t="n">
-        <v>154.3811</v>
+        <v>136.5932</v>
       </c>
       <c r="G159" t="n">
-        <v>5.869833333333326</v>
+        <v>5.871333333333325</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="C160" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="D160" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="E160" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>154.3811</v>
       </c>
       <c r="G160" t="n">
-        <v>5.868999999999992</v>
+        <v>5.869833333333326</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>5.9</v>
       </c>
       <c r="F161" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G161" t="n">
         <v>5.868999999999992</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>5.9</v>
       </c>
       <c r="F162" t="n">
-        <v>11425.4976</v>
+        <v>28</v>
       </c>
       <c r="G162" t="n">
-        <v>5.868333333333325</v>
+        <v>5.868999999999992</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="C163" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="D163" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="E163" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>11425.4976</v>
       </c>
       <c r="G163" t="n">
-        <v>5.868499999999992</v>
+        <v>5.868333333333325</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,7 +5111,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="C164" t="n">
         <v>5.95</v>
@@ -4629,15 +5120,18 @@
         <v>5.95</v>
       </c>
       <c r="E164" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="F164" t="n">
-        <v>5185.4178</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>5.868666666666658</v>
+        <v>5.868499999999992</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="C165" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="D165" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="E165" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="F165" t="n">
-        <v>6946.1785</v>
+        <v>5185.4178</v>
       </c>
       <c r="G165" t="n">
-        <v>5.868833333333326</v>
+        <v>5.868666666666658</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="C166" t="n">
-        <v>5.73</v>
+        <v>5.91</v>
       </c>
       <c r="D166" t="n">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="E166" t="n">
-        <v>5.73</v>
+        <v>5.91</v>
       </c>
       <c r="F166" t="n">
-        <v>128177.5066</v>
+        <v>6946.1785</v>
       </c>
       <c r="G166" t="n">
-        <v>5.865333333333326</v>
+        <v>5.868833333333326</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="C167" t="n">
-        <v>5.91</v>
+        <v>5.73</v>
       </c>
       <c r="D167" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="E167" t="n">
-        <v>5.91</v>
+        <v>5.73</v>
       </c>
       <c r="F167" t="n">
-        <v>11</v>
+        <v>128177.5066</v>
       </c>
       <c r="G167" t="n">
-        <v>5.865499999999994</v>
+        <v>5.865333333333326</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>5.91</v>
       </c>
       <c r="F168" t="n">
-        <v>2020.642978003384</v>
+        <v>11</v>
       </c>
       <c r="G168" t="n">
-        <v>5.864999999999994</v>
+        <v>5.865499999999994</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>5.91</v>
       </c>
       <c r="F169" t="n">
-        <v>285.1785</v>
+        <v>2020.642978003384</v>
       </c>
       <c r="G169" t="n">
-        <v>5.865166666666662</v>
+        <v>5.864999999999994</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>5.91</v>
       </c>
       <c r="F170" t="n">
-        <v>777.1573</v>
+        <v>285.1785</v>
       </c>
       <c r="G170" t="n">
-        <v>5.864666666666662</v>
+        <v>5.865166666666662</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>5.91</v>
       </c>
       <c r="F171" t="n">
-        <v>4722.842639593909</v>
+        <v>777.1573</v>
       </c>
       <c r="G171" t="n">
-        <v>5.864333333333329</v>
+        <v>5.864666666666662</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,21 +5346,24 @@
         <v>5.91</v>
       </c>
       <c r="C172" t="n">
-        <v>5.95</v>
+        <v>5.91</v>
       </c>
       <c r="D172" t="n">
-        <v>5.95</v>
+        <v>5.91</v>
       </c>
       <c r="E172" t="n">
         <v>5.91</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>4722.842639593909</v>
       </c>
       <c r="G172" t="n">
         <v>5.864333333333329</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,7 +5372,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.95</v>
+        <v>5.91</v>
       </c>
       <c r="C173" t="n">
         <v>5.95</v>
@@ -4863,15 +5381,18 @@
         <v>5.95</v>
       </c>
       <c r="E173" t="n">
-        <v>5.95</v>
+        <v>5.91</v>
       </c>
       <c r="F173" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>5.864666666666662</v>
+        <v>5.864333333333329</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +5401,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.77</v>
+        <v>5.95</v>
       </c>
       <c r="C174" t="n">
         <v>5.95</v>
@@ -4889,15 +5410,18 @@
         <v>5.95</v>
       </c>
       <c r="E174" t="n">
-        <v>5.77</v>
+        <v>5.95</v>
       </c>
       <c r="F174" t="n">
-        <v>20</v>
+        <v>5000</v>
       </c>
       <c r="G174" t="n">
         <v>5.864666666666662</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.94</v>
+        <v>5.77</v>
       </c>
       <c r="C175" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="D175" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E175" t="n">
-        <v>5.94</v>
+        <v>5.77</v>
       </c>
       <c r="F175" t="n">
-        <v>10.7744</v>
+        <v>20</v>
       </c>
       <c r="G175" t="n">
         <v>5.864666666666662</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4941,15 +5468,18 @@
         <v>5.94</v>
       </c>
       <c r="E176" t="n">
-        <v>5.77</v>
+        <v>5.94</v>
       </c>
       <c r="F176" t="n">
-        <v>43</v>
+        <v>10.7744</v>
       </c>
       <c r="G176" t="n">
         <v>5.864666666666662</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>5.77</v>
       </c>
       <c r="F177" t="n">
-        <v>573</v>
+        <v>43</v>
       </c>
       <c r="G177" t="n">
-        <v>5.864833333333328</v>
+        <v>5.864666666666662</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4993,15 +5526,18 @@
         <v>5.94</v>
       </c>
       <c r="E178" t="n">
-        <v>5.79</v>
+        <v>5.77</v>
       </c>
       <c r="F178" t="n">
-        <v>32</v>
+        <v>573</v>
       </c>
       <c r="G178" t="n">
-        <v>5.865166666666662</v>
+        <v>5.864833333333328</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,7 +5546,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.79</v>
+        <v>5.94</v>
       </c>
       <c r="C179" t="n">
         <v>5.94</v>
@@ -5022,12 +5558,15 @@
         <v>5.79</v>
       </c>
       <c r="F179" t="n">
-        <v>547.4949</v>
+        <v>32</v>
       </c>
       <c r="G179" t="n">
-        <v>5.866666666666661</v>
+        <v>5.865166666666662</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,10 +5575,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C180" t="n">
         <v>5.94</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.93</v>
       </c>
       <c r="D180" t="n">
         <v>5.94</v>
@@ -5048,12 +5587,15 @@
         <v>5.79</v>
       </c>
       <c r="F180" t="n">
-        <v>2813.1157</v>
+        <v>547.4949</v>
       </c>
       <c r="G180" t="n">
-        <v>5.868833333333328</v>
+        <v>5.866666666666661</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="C181" t="n">
-        <v>5.79</v>
+        <v>5.93</v>
       </c>
       <c r="D181" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="E181" t="n">
         <v>5.79</v>
       </c>
       <c r="F181" t="n">
-        <v>2727.554</v>
+        <v>2813.1157</v>
       </c>
       <c r="G181" t="n">
-        <v>5.866499999999994</v>
+        <v>5.868833333333328</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="C182" t="n">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
       <c r="D182" t="n">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="E182" t="n">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
       <c r="F182" t="n">
-        <v>11</v>
+        <v>2727.554</v>
       </c>
       <c r="G182" t="n">
-        <v>5.868499999999995</v>
+        <v>5.866499999999994</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5117,21 +5665,24 @@
         <v>5.82</v>
       </c>
       <c r="C183" t="n">
-        <v>5.79</v>
+        <v>5.82</v>
       </c>
       <c r="D183" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="E183" t="n">
-        <v>5.79</v>
+        <v>5.82</v>
       </c>
       <c r="F183" t="n">
-        <v>168528.6470208754</v>
+        <v>11</v>
       </c>
       <c r="G183" t="n">
-        <v>5.870666666666661</v>
+        <v>5.868499999999995</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.93</v>
+        <v>5.82</v>
       </c>
       <c r="C184" t="n">
         <v>5.79</v>
       </c>
       <c r="D184" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="E184" t="n">
         <v>5.79</v>
       </c>
       <c r="F184" t="n">
-        <v>17891.8492</v>
+        <v>168528.6470208754</v>
       </c>
       <c r="G184" t="n">
-        <v>5.868666666666661</v>
+        <v>5.870666666666661</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5178,12 +5732,15 @@
         <v>5.79</v>
       </c>
       <c r="F185" t="n">
-        <v>22</v>
+        <v>17891.8492</v>
       </c>
       <c r="G185" t="n">
-        <v>5.870999999999995</v>
+        <v>5.868666666666661</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.81</v>
+        <v>5.93</v>
       </c>
       <c r="C186" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="D186" t="n">
-        <v>5.81</v>
+        <v>5.93</v>
       </c>
       <c r="E186" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="F186" t="n">
-        <v>10373.05</v>
+        <v>22</v>
       </c>
       <c r="G186" t="n">
-        <v>5.869166666666661</v>
+        <v>5.870999999999995</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="C187" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="D187" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="E187" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="F187" t="n">
-        <v>4324.2296</v>
+        <v>10373.05</v>
       </c>
       <c r="G187" t="n">
-        <v>5.866999999999995</v>
+        <v>5.869166666666661</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="C188" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="D188" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="E188" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="F188" t="n">
-        <v>10</v>
+        <v>4324.2296</v>
       </c>
       <c r="G188" t="n">
-        <v>5.866666666666661</v>
+        <v>5.866999999999995</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="C189" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="D189" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="E189" t="n">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="F189" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G189" t="n">
-        <v>5.864499999999994</v>
+        <v>5.866666666666661</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5299,21 +5868,24 @@
         <v>5.79</v>
       </c>
       <c r="C190" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="D190" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="E190" t="n">
         <v>5.79</v>
       </c>
       <c r="F190" t="n">
-        <v>1492.1222</v>
+        <v>30</v>
       </c>
       <c r="G190" t="n">
-        <v>5.864166666666661</v>
+        <v>5.864499999999994</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="C191" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D191" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="E191" t="n">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="F191" t="n">
-        <v>7353.5289</v>
+        <v>1492.1222</v>
       </c>
       <c r="G191" t="n">
-        <v>5.867166666666661</v>
+        <v>5.864166666666661</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,7 +5923,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="C192" t="n">
         <v>5.88</v>
@@ -5357,15 +5932,18 @@
         <v>5.88</v>
       </c>
       <c r="E192" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="F192" t="n">
-        <v>108.0272</v>
+        <v>7353.5289</v>
       </c>
       <c r="G192" t="n">
-        <v>5.866833333333328</v>
+        <v>5.867166666666661</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,7 +5952,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.83</v>
+        <v>5.79</v>
       </c>
       <c r="C193" t="n">
         <v>5.88</v>
@@ -5383,15 +5961,18 @@
         <v>5.88</v>
       </c>
       <c r="E193" t="n">
-        <v>5.83</v>
+        <v>5.79</v>
       </c>
       <c r="F193" t="n">
-        <v>32.3129</v>
+        <v>108.0272</v>
       </c>
       <c r="G193" t="n">
-        <v>5.866499999999994</v>
+        <v>5.866833333333328</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>5.83</v>
       </c>
       <c r="F194" t="n">
-        <v>58.9972</v>
+        <v>32.3129</v>
       </c>
       <c r="G194" t="n">
-        <v>5.869499999999994</v>
+        <v>5.866499999999994</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="C195" t="n">
-        <v>5.81</v>
+        <v>5.88</v>
       </c>
       <c r="D195" t="n">
         <v>5.88</v>
       </c>
       <c r="E195" t="n">
-        <v>5.81</v>
+        <v>5.83</v>
       </c>
       <c r="F195" t="n">
-        <v>7816.5918</v>
+        <v>58.9972</v>
       </c>
       <c r="G195" t="n">
-        <v>5.868499999999995</v>
+        <v>5.869499999999994</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.81</v>
+        <v>5.87</v>
       </c>
       <c r="C196" t="n">
         <v>5.81</v>
       </c>
       <c r="D196" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E196" t="n">
         <v>5.81</v>
       </c>
-      <c r="E196" t="n">
-        <v>5.8</v>
-      </c>
       <c r="F196" t="n">
-        <v>80340.8285</v>
+        <v>7816.5918</v>
       </c>
       <c r="G196" t="n">
-        <v>5.867333333333328</v>
+        <v>5.868499999999995</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="C197" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="D197" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="E197" t="n">
         <v>5.8</v>
       </c>
       <c r="F197" t="n">
-        <v>49927.7242</v>
+        <v>80340.8285</v>
       </c>
       <c r="G197" t="n">
-        <v>5.865999999999995</v>
+        <v>5.867333333333328</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>5.8</v>
       </c>
       <c r="F198" t="n">
-        <v>72.2758</v>
+        <v>49927.7242</v>
       </c>
       <c r="G198" t="n">
-        <v>5.864666666666662</v>
+        <v>5.865999999999995</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>5.8</v>
       </c>
       <c r="F199" t="n">
-        <v>146479.4483</v>
+        <v>72.2758</v>
       </c>
       <c r="G199" t="n">
-        <v>5.863333333333329</v>
+        <v>5.864666666666662</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,7 +6155,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C200" t="n">
         <v>5.8</v>
@@ -5565,15 +6164,18 @@
         <v>5.8</v>
       </c>
       <c r="E200" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="F200" t="n">
-        <v>51703.6838</v>
+        <v>146479.4483</v>
       </c>
       <c r="G200" t="n">
-        <v>5.864666666666662</v>
+        <v>5.863333333333329</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="C201" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="D201" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="E201" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="F201" t="n">
-        <v>11</v>
+        <v>51703.6838</v>
       </c>
       <c r="G201" t="n">
-        <v>5.864166666666662</v>
+        <v>5.864666666666662</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="C202" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="D202" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="E202" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="F202" t="n">
-        <v>30000</v>
+        <v>11</v>
       </c>
       <c r="G202" t="n">
-        <v>5.863499999999997</v>
+        <v>5.864166666666662</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="C203" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D203" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="E203" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="F203" t="n">
-        <v>7462.8602</v>
+        <v>30000</v>
       </c>
       <c r="G203" t="n">
-        <v>5.862333333333329</v>
+        <v>5.863499999999997</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="C204" t="n">
         <v>5.77</v>
       </c>
       <c r="D204" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="E204" t="n">
         <v>5.77</v>
       </c>
       <c r="F204" t="n">
-        <v>13091.7446</v>
+        <v>7462.8602</v>
       </c>
       <c r="G204" t="n">
-        <v>5.861166666666663</v>
+        <v>5.862333333333329</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5.76</v>
+        <v>5.81</v>
       </c>
       <c r="C205" t="n">
-        <v>5.88</v>
+        <v>5.77</v>
       </c>
       <c r="D205" t="n">
-        <v>5.88</v>
+        <v>5.81</v>
       </c>
       <c r="E205" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="F205" t="n">
-        <v>291197.7908</v>
+        <v>13091.7446</v>
       </c>
       <c r="G205" t="n">
-        <v>5.861833333333331</v>
+        <v>5.861166666666663</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C206" t="n">
         <v>5.88</v>
       </c>
-      <c r="C206" t="n">
-        <v>5.89</v>
-      </c>
       <c r="D206" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E206" t="n">
-        <v>5.88</v>
+        <v>5.76</v>
       </c>
       <c r="F206" t="n">
-        <v>5310.767</v>
+        <v>291197.7908</v>
       </c>
       <c r="G206" t="n">
-        <v>5.862666666666664</v>
+        <v>5.861833333333331</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +6358,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C207" t="n">
         <v>5.89</v>
@@ -5747,15 +6367,18 @@
         <v>5.89</v>
       </c>
       <c r="E207" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F207" t="n">
-        <v>1489.5791</v>
+        <v>5310.767</v>
       </c>
       <c r="G207" t="n">
-        <v>5.863666666666663</v>
+        <v>5.862666666666664</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,12 +6399,15 @@
         <v>5.89</v>
       </c>
       <c r="F208" t="n">
-        <v>213.5602</v>
+        <v>1489.5791</v>
       </c>
       <c r="G208" t="n">
-        <v>5.864666666666664</v>
+        <v>5.863666666666663</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,12 +6428,15 @@
         <v>5.89</v>
       </c>
       <c r="F209" t="n">
-        <v>14.3293</v>
+        <v>213.5602</v>
       </c>
       <c r="G209" t="n">
-        <v>5.865666666666664</v>
+        <v>5.864666666666664</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>5.89</v>
       </c>
       <c r="F210" t="n">
-        <v>72.13039999999999</v>
+        <v>14.3293</v>
       </c>
       <c r="G210" t="n">
-        <v>5.868166666666664</v>
+        <v>5.865666666666664</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,12 +6486,15 @@
         <v>5.89</v>
       </c>
       <c r="F211" t="n">
-        <v>10.0084</v>
+        <v>72.13039999999999</v>
       </c>
       <c r="G211" t="n">
-        <v>5.869499999999997</v>
+        <v>5.868166666666664</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,532 +6515,15 @@
         <v>5.89</v>
       </c>
       <c r="F212" t="n">
-        <v>697.4108</v>
+        <v>10.0084</v>
       </c>
       <c r="G212" t="n">
-        <v>5.870833333333329</v>
+        <v>5.869499999999997</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D213" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E213" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F213" t="n">
-        <v>100</v>
-      </c>
-      <c r="G213" t="n">
-        <v>5.870833333333329</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D214" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E214" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F214" t="n">
-        <v>435820.613</v>
-      </c>
-      <c r="G214" t="n">
-        <v>5.871666666666663</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C215" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D215" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E215" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F215" t="n">
-        <v>286.7032</v>
-      </c>
-      <c r="G215" t="n">
-        <v>5.872166666666663</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C216" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D216" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E216" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F216" t="n">
-        <v>426114.6179</v>
-      </c>
-      <c r="G216" t="n">
-        <v>5.874166666666664</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C217" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D217" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E217" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F217" t="n">
-        <v>804.9833</v>
-      </c>
-      <c r="G217" t="n">
-        <v>5.876333333333331</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C218" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D218" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E218" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F218" t="n">
-        <v>45883.4484</v>
-      </c>
-      <c r="G218" t="n">
-        <v>5.87833333333333</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C219" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D219" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E219" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F219" t="n">
-        <v>307262.8748</v>
-      </c>
-      <c r="G219" t="n">
-        <v>5.883166666666663</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C220" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D220" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E220" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F220" t="n">
-        <v>316629.8729</v>
-      </c>
-      <c r="G220" t="n">
-        <v>5.887499999999998</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C221" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D221" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E221" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F221" t="n">
-        <v>109647.8896</v>
-      </c>
-      <c r="G221" t="n">
-        <v>5.891833333333332</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F222" t="n">
-        <v>11</v>
-      </c>
-      <c r="G222" t="n">
-        <v>5.896166666666665</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C223" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D223" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E223" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F223" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G223" t="n">
-        <v>5.898666666666666</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F224" t="n">
-        <v>51925.4428</v>
-      </c>
-      <c r="G224" t="n">
-        <v>5.901166666666667</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1385.5572</v>
-      </c>
-      <c r="G225" t="n">
-        <v>5.904333333333333</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="C226" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D226" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E226" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F226" t="n">
-        <v>11</v>
-      </c>
-      <c r="G226" t="n">
-        <v>5.910666666666667</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F227" t="n">
-        <v>51907.4829</v>
-      </c>
-      <c r="G227" t="n">
-        <v>5.913833333333333</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D228" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E228" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F228" t="n">
-        <v>729748.9257</v>
-      </c>
-      <c r="G228" t="n">
-        <v>5.9175</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C229" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D229" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E229" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F229" t="n">
-        <v>6325.8241</v>
-      </c>
-      <c r="G229" t="n">
-        <v>5.921166666666665</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C230" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D230" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E230" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F230" t="n">
-        <v>9362.5407</v>
-      </c>
-      <c r="G230" t="n">
-        <v>5.924999999999998</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C231" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D231" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E231" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F231" t="n">
-        <v>33127.0005</v>
-      </c>
-      <c r="G231" t="n">
-        <v>5.928833333333331</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C232" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D232" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E232" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F232" t="n">
-        <v>109962.2773</v>
-      </c>
-      <c r="G232" t="n">
-        <v>5.931833333333331</v>
-      </c>
-      <c r="H232" t="n">
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
